--- a/acharyan_captions_telugu.xlsx
+++ b/acharyan_captions_telugu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02993FF0-6A7E-48A3-9AB6-06AB5D87C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE72F0F5-310B-4584-85E9-A44F52E2A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6610" yWindow="5040" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40940" yWindow="4460" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>శ్రీ బ్రహ్మతంత్ర స్వతంత్రమహా దేశికన్ (1359 – 1386)</t>
   </si>
@@ -223,15 +223,9 @@
     <t>M3</t>
   </si>
   <si>
-    <t>శ్రీ పరకాల మఠ ఆచార్యులు</t>
-  </si>
-  <si>
     <t>M4</t>
   </si>
   <si>
-    <t>బ్రహ్మతంత్ర స్వతంత్ర స్వాముల పరంపర</t>
-  </si>
-  <si>
     <t>M5</t>
   </si>
   <si>
@@ -242,6 +236,9 @@
   </si>
   <si>
     <t>శ్రీదేవి</t>
+  </si>
+  <si>
+    <t>శ్రీ బ్రహ్మతంత్ర స్వతంత్ర  పరకాల స్వామి మఠ ఆచార్యులు</t>
   </si>
 </sst>
 </file>
@@ -590,7 +587,7 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +601,7 @@
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1024,7 +1021,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1251,7 +1248,9 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1288,23 +1287,21 @@
         <v>65</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/acharyan_captions_telugu.xlsx
+++ b/acharyan_captions_telugu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE72F0F5-310B-4584-85E9-A44F52E2A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A239C-6BFC-494B-B04B-6852D39D2BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40940" yWindow="4460" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="4850" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1248,7 +1248,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/acharyan_captions_telugu.xlsx
+++ b/acharyan_captions_telugu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A239C-6BFC-494B-B04B-6852D39D2BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB93F69-98F3-43A5-A0F6-7E78233663E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="4850" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47470" yWindow="5070" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -211,15 +211,9 @@
     <t>M1</t>
   </si>
   <si>
-    <t>శ్రీ పరకాల మఠ గురు పరంపర</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
-    <t xml:space="preserve">శ్రీ వేదాంత దేశికులు 1359 వ సంవత్సరంలో స్థాపించినది </t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
@@ -229,16 +223,22 @@
     <t>M5</t>
   </si>
   <si>
-    <t>శ్రీ వేదాంత దేశికుల శాశ్వత పరంపర</t>
-  </si>
-  <si>
     <t>Sri Parakāla Mata Ācāryas</t>
   </si>
   <si>
     <t>శ్రీదేవి</t>
   </si>
   <si>
-    <t>శ్రీ బ్రహ్మతంత్ర స్వతంత్ర  పరకాల స్వామి మఠ ఆచార్యులు</t>
+    <t>శ్రీ వేదాంత దేశికులచే క్రి.శ. 1359వ సంవత్సరంలో స్థాపితమైనది</t>
+  </si>
+  <si>
+    <t>శ్రీ బ్రహ్మతంత్ర స్వతంత్ర పరకాల స్వామి మఠ ఆచార్యులు</t>
+  </si>
+  <si>
+    <t>శ్రీ పరకాల స్వామి మఠ – శ్రీ వేదాంత దేశికుల అవిచ్ఛిన్న పరంపర</t>
+  </si>
+  <si>
+    <t>శ్రీ బ్రహ్మతంత్ర స్వతంత్ర పరకాల స్వామి మఠ గురుపరంపర</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +601,7 @@
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1248,14 +1248,14 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.7265625" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" customWidth="1"/>
+    <col min="3" max="3" width="52.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1270,38 +1270,38 @@
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>62</v>
+      <c r="B2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/acharyan_captions_telugu.xlsx
+++ b/acharyan_captions_telugu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB93F69-98F3-43A5-A0F6-7E78233663E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6EBEBE7-DBC8-4549-A257-ED06F1D068B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47470" yWindow="5070" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8670" yWindow="3460" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>శ్రీదేవి</t>
   </si>
   <si>
-    <t>శ్రీ వేదాంత దేశికులచే క్రి.శ. 1359వ సంవత్సరంలో స్థాపితమైనది</t>
-  </si>
-  <si>
     <t>శ్రీ బ్రహ్మతంత్ర స్వతంత్ర పరకాల స్వామి మఠ ఆచార్యులు</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>శ్రీ బ్రహ్మతంత్ర స్వతంత్ర పరకాల స్వామి మఠ గురుపరంపర</t>
+  </si>
+  <si>
+    <t>శ్రీ వేదాంత దేశికులచే క్రీ.శ.1359 వ సంవత్సరంలో స్థాపించబడినది</t>
   </si>
 </sst>
 </file>
@@ -1249,13 +1249,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.7265625" customWidth="1"/>
-    <col min="3" max="3" width="52.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1271,7 +1271,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1279,7 +1279,7 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1287,7 +1287,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1301,7 +1301,7 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
